--- a/Structures/problem-solving/Book1.xlsx
+++ b/Structures/problem-solving/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Praca\FileRepository\Nauka\Structures\problem-solving\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C2A00BA-E4AE-4B0B-8DA5-72A5A7AE43F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D69EF3-771C-4F20-BC9C-B55C1DAE7032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="-12255" windowWidth="16410" windowHeight="8880" xr2:uid="{D30AAC5F-B48C-425E-8126-73E00F16D8D9}"/>
+    <workbookView xWindow="28680" yWindow="-12675" windowWidth="16440" windowHeight="28320" xr2:uid="{D30AAC5F-B48C-425E-8126-73E00F16D8D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,8 +66,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,15 +383,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00DB9EB8-9DAE-4989-BCC0-991F23379A5E}">
-  <dimension ref="A2:AA14"/>
+  <dimension ref="A2:AA33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="N48" sqref="N48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="27" width="3.77734375" customWidth="1"/>
+    <col min="1" max="8" width="3.77734375" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" customWidth="1"/>
+    <col min="10" max="27" width="3.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
@@ -1179,7 +1182,151 @@
         <v>0</v>
       </c>
     </row>
+    <row r="21" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="I21" s="1">
+        <f>PRODUCT(I22:I37)</f>
+        <v>401120980260</v>
+      </c>
+    </row>
+    <row r="22" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23">
+        <f>G23^H23</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <f t="shared" ref="I24:I33" si="5">G24^H24</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G25">
+        <v>5</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G26">
+        <v>7</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G27">
+        <v>11</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G28">
+        <v>13</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G29">
+        <v>17</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G30">
+        <v>19</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G31">
+        <v>23</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G32">
+        <v>29</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G33">
+        <v>31</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>